--- a/backend/result/클리앙_result.xlsx
+++ b/backend/result/클리앙_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,108 +436,198 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>DF</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>이준석</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>생각</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>댓글</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>언어</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>윤석열</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>나비효과</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>프로그래밍</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>우리</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>슬로건</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>어제</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>토론</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>아들</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>영부인</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>윤석열</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>볶음밥</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>입시</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>이동진</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>의류</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>이번</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>이상</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/backend/result/클리앙_result.xlsx
+++ b/backend/result/클리앙_result.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>생각</t>
+          <t>윤석열</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -464,7 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3위 상승</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>댓글</t>
+          <t>후보</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>언어</t>
+          <t>조각집</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -510,15 +510,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>윤석열</t>
+          <t>149달러</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -528,15 +528,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>나비효과</t>
+          <t>여론조사M</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -546,15 +546,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>프로그래밍</t>
+          <t>윤석렬</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -564,15 +564,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>우리</t>
+          <t>원전</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -582,15 +582,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>슬로건</t>
+          <t>욜로마우스</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>이동진</t>
+          <t>완료</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이번</t>
+          <t>오늘</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -626,7 +626,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>

--- a/backend/result/클리앙_result.xlsx
+++ b/backend/result/클리앙_result.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>윤석열</t>
+          <t>사람</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -464,7 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3위 상승</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -474,15 +474,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>후보</t>
+          <t>필요</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>4위 상승</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>조각집</t>
+          <t>후보</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>1위 하락</t>
         </is>
       </c>
     </row>
@@ -510,15 +510,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>149달러</t>
+          <t>종전선언</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -528,15 +528,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>여론조사M</t>
+          <t>데이터</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>2위 하락</t>
         </is>
       </c>
     </row>
@@ -546,15 +546,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>윤석렬</t>
+          <t>윤석열</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>1위 하락</t>
         </is>
       </c>
     </row>
@@ -564,15 +564,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>원전</t>
+          <t>검찰</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -582,15 +582,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>욜로마우스</t>
+          <t>이유</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>1위 하락</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>완료</t>
+          <t>12시간</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>1위 하락</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>오늘</t>
+          <t>인상안</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -626,7 +626,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/backend/result/클리앙_result.xlsx
+++ b/backend/result/클리앙_result.xlsx
@@ -456,15 +456,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>사람</t>
+          <t>윤석열</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1위 상승</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>필요</t>
+          <t>설강화</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4위 상승</t>
+          <t>1위 하락</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>후보</t>
+          <t>유튜브</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1위 하락</t>
+          <t>5위 상승</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>종전선언</t>
+          <t>이유</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>데이터</t>
+          <t>이재명</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -536,7 +536,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2위 하락</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>윤석열</t>
+          <t>사찰</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1위 하락</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>검찰</t>
+          <t>통신조회</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -582,7 +582,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>이유</t>
+          <t>오늘</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -590,7 +590,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1위 하락</t>
+          <t>4위 하락</t>
         </is>
       </c>
     </row>
@@ -600,15 +600,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12시간</t>
+          <t>협박</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1위 하락</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -618,11 +618,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>인상안</t>
+          <t>스벅</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/backend/result/클리앙_result.xlsx
+++ b/backend/result/클리앙_result.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1위 상승</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -478,11 +478,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1위 하락</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>유튜브</t>
+          <t>청원</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5위 상승</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>이유</t>
+          <t>의혹</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>이재명</t>
+          <t>내용</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -546,7 +546,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>사찰</t>
+          <t>국민의힘</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -564,7 +564,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>통신조회</t>
+          <t>가능</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -582,7 +582,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>오늘</t>
+          <t>대구</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -590,7 +590,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4위 하락</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>협박</t>
+          <t>오늘</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1위 하락</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>스벅</t>
+          <t>이준석</t>
         </is>
       </c>
       <c r="C11" t="n">
